--- a/MonteCarloResultsBUS6Sub2MDERS.xlsx
+++ b/MonteCarloResultsBUS6Sub2MDERS.xlsx
@@ -145,10 +145,10 @@
     <t>farm</t>
   </si>
   <si>
-    <t>(46.67955597575679, 50.645974180678344)</t>
-  </si>
-  <si>
-    <t>(46.05626168641198, 51.26926847002316)</t>
+    <t>(44.700207300046266, 48.93556593449126)</t>
+  </si>
+  <si>
+    <t>(44.03465094320491, 49.601122291332615)</t>
   </si>
 </sst>
 </file>
@@ -582,28 +582,28 @@
         <v>147</v>
       </c>
       <c r="F2">
-        <v>7.315935292731717</v>
+        <v>7.155837786072367</v>
       </c>
       <c r="G2">
-        <v>3467</v>
+        <v>2781</v>
       </c>
       <c r="H2">
-        <v>5.444220667795739</v>
+        <v>5.491031224551755</v>
       </c>
       <c r="I2">
-        <v>1.343798449612403</v>
+        <v>1.303186504217432</v>
       </c>
       <c r="J2">
-        <v>197.5383720930233</v>
+        <v>191.5684161199625</v>
       </c>
       <c r="K2">
-        <v>1075.442488031562</v>
+        <v>1051.908154552638</v>
       </c>
       <c r="L2">
-        <v>800.3004381659737</v>
+        <v>807.181590009108</v>
       </c>
       <c r="M2">
-        <v>1.213713665064192</v>
+        <v>1.187153488709406</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -623,28 +623,28 @@
         <v>126</v>
       </c>
       <c r="F3">
-        <v>7.279539333037016</v>
+        <v>7.189756796779523</v>
       </c>
       <c r="G3">
-        <v>3462</v>
+        <v>2776</v>
       </c>
       <c r="H3">
-        <v>5.42495998822516</v>
+        <v>5.526996039022875</v>
       </c>
       <c r="I3">
-        <v>1.341860465116279</v>
+        <v>1.300843486410497</v>
       </c>
       <c r="J3">
-        <v>169.0744186046512</v>
+        <v>163.9062792877226</v>
       </c>
       <c r="K3">
-        <v>917.2219559626641</v>
+        <v>905.9093563942199</v>
       </c>
       <c r="L3">
-        <v>683.5449585163701</v>
+        <v>696.4015009168822</v>
       </c>
       <c r="M3">
-        <v>1.316140711413093</v>
+        <v>1.299908028857738</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -664,28 +664,28 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>7.236015730350527</v>
+        <v>7.144365214794698</v>
       </c>
       <c r="G4">
-        <v>3467</v>
+        <v>2778</v>
       </c>
       <c r="H4">
-        <v>5.384747788954242</v>
+        <v>5.488148080767418</v>
       </c>
       <c r="I4">
-        <v>1.343798449612403</v>
+        <v>1.301780693533271</v>
       </c>
       <c r="J4">
-        <v>1.343798449612403</v>
+        <v>1.301780693533271</v>
       </c>
       <c r="K4">
-        <v>7.236015730350527</v>
+        <v>7.144365214794698</v>
       </c>
       <c r="L4">
-        <v>5.384747788954242</v>
+        <v>5.488148080767418</v>
       </c>
       <c r="M4">
-        <v>1.809727534160667</v>
+        <v>1.786805740220154</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -705,28 +705,28 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>7.29333831602723</v>
+        <v>7.226133001156112</v>
       </c>
       <c r="G5">
-        <v>3468</v>
+        <v>2784</v>
       </c>
       <c r="H5">
-        <v>5.425839923688078</v>
+        <v>5.538997063386187</v>
       </c>
       <c r="I5">
-        <v>1.344186046511628</v>
+        <v>1.304592314901593</v>
       </c>
       <c r="J5">
-        <v>1.344186046511628</v>
+        <v>1.304592314901593</v>
       </c>
       <c r="K5">
-        <v>7.29333831602723</v>
+        <v>7.226133001156112</v>
       </c>
       <c r="L5">
-        <v>5.425839923688078</v>
+        <v>5.538997063386187</v>
       </c>
       <c r="M5">
-        <v>1.92033597860997</v>
+        <v>1.902640819204404</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -746,28 +746,28 @@
         <v>132</v>
       </c>
       <c r="F6">
-        <v>8.250854640260387</v>
+        <v>7.831953062165842</v>
       </c>
       <c r="G6">
-        <v>3476</v>
+        <v>2773</v>
       </c>
       <c r="H6">
-        <v>6.124052063254258</v>
+        <v>6.027186381053698</v>
       </c>
       <c r="I6">
-        <v>1.347286821705426</v>
+        <v>1.299437675726336</v>
       </c>
       <c r="J6">
-        <v>177.8418604651163</v>
+        <v>171.5257731958763</v>
       </c>
       <c r="K6">
-        <v>1089.112812514371</v>
+        <v>1033.817804205891</v>
       </c>
       <c r="L6">
-        <v>808.374872349562</v>
+        <v>795.5886022990882</v>
       </c>
       <c r="M6">
-        <v>1.7079269105339</v>
+        <v>1.621214283868329</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -787,28 +787,28 @@
         <v>147</v>
       </c>
       <c r="F7">
-        <v>8.469656652958182</v>
+        <v>8.025883211335147</v>
       </c>
       <c r="G7">
-        <v>3534</v>
+        <v>2837</v>
       </c>
       <c r="H7">
-        <v>6.18328074833959</v>
+        <v>6.037093680997252</v>
       </c>
       <c r="I7">
-        <v>1.369767441860465</v>
+        <v>1.329428303655108</v>
       </c>
       <c r="J7">
-        <v>201.3558139534884</v>
+        <v>195.4259606373008</v>
       </c>
       <c r="K7">
-        <v>1245.039527984853</v>
+        <v>1179.804832066267</v>
       </c>
       <c r="L7">
-        <v>908.9422700059198</v>
+        <v>887.4527711065961</v>
       </c>
       <c r="M7">
-        <v>1.405116038725762</v>
+        <v>1.331494024760501</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -828,28 +828,28 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>8.449444661902113</v>
+        <v>8.132159920605083</v>
       </c>
       <c r="G8">
-        <v>3553</v>
+        <v>2856</v>
       </c>
       <c r="H8">
-        <v>6.1355382008746</v>
+        <v>6.076340781012342</v>
       </c>
       <c r="I8">
-        <v>1.377131782945736</v>
+        <v>1.338331771321462</v>
       </c>
       <c r="J8">
-        <v>1.377131782945736</v>
+        <v>1.338331771321462</v>
       </c>
       <c r="K8">
-        <v>8.449444661902113</v>
+        <v>8.132159920605083</v>
       </c>
       <c r="L8">
-        <v>6.1355382008746</v>
+        <v>6.076340781012342</v>
       </c>
       <c r="M8">
-        <v>2.582995233143476</v>
+        <v>2.486001287728974</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -869,28 +869,28 @@
         <v>79</v>
       </c>
       <c r="F9">
-        <v>8.160742836114991</v>
+        <v>7.92476738644709</v>
       </c>
       <c r="G9">
-        <v>3469</v>
+        <v>2789</v>
       </c>
       <c r="H9">
-        <v>6.069390751564335</v>
+        <v>6.063626246926529</v>
       </c>
       <c r="I9">
-        <v>1.344573643410853</v>
+        <v>1.306935332708529</v>
       </c>
       <c r="J9">
-        <v>106.2213178294574</v>
+        <v>103.2478912839738</v>
       </c>
       <c r="K9">
-        <v>644.6986840530843</v>
+        <v>626.0566235293202</v>
       </c>
       <c r="L9">
-        <v>479.4818693735825</v>
+        <v>479.0264735071958</v>
       </c>
       <c r="M9">
-        <v>1.26817943673227</v>
+        <v>1.231508851853878</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -910,28 +910,28 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>10.39785688433575</v>
+        <v>9.970799587348667</v>
       </c>
       <c r="G10">
-        <v>3532</v>
+        <v>2831</v>
       </c>
       <c r="H10">
-        <v>7.595263522532908</v>
+        <v>7.515961257294968</v>
       </c>
       <c r="I10">
-        <v>1.368992248062016</v>
+        <v>1.326616682286785</v>
       </c>
       <c r="J10">
-        <v>1.368992248062016</v>
+        <v>1.326616682286785</v>
       </c>
       <c r="K10">
-        <v>10.39785688433575</v>
+        <v>9.970799587348667</v>
       </c>
       <c r="L10">
-        <v>7.595263522532908</v>
+        <v>7.515961257294968</v>
       </c>
       <c r="M10">
-        <v>2.94363328395545</v>
+        <v>2.822733363178408</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -951,28 +951,28 @@
         <v>76</v>
       </c>
       <c r="F11">
-        <v>10.25512782053914</v>
+        <v>9.880966773723198</v>
       </c>
       <c r="G11">
-        <v>3468</v>
+        <v>2783</v>
       </c>
       <c r="H11">
-        <v>7.629247340539497</v>
+        <v>7.576709700009093</v>
       </c>
       <c r="I11">
-        <v>1.344186046511628</v>
+        <v>1.304123711340206</v>
       </c>
       <c r="J11">
-        <v>102.1581395348837</v>
+        <v>99.11340206185567</v>
       </c>
       <c r="K11">
-        <v>779.3897143609745</v>
+        <v>750.9534748029631</v>
       </c>
       <c r="L11">
-        <v>579.8227978810017</v>
+        <v>575.829937200691</v>
       </c>
       <c r="M11">
-        <v>1.625437759555453</v>
+        <v>1.566133233635127</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -992,28 +992,28 @@
         <v>79</v>
       </c>
       <c r="F12">
-        <v>10.86347721253171</v>
+        <v>10.26719565501607</v>
       </c>
       <c r="G12">
-        <v>3850</v>
+        <v>3092</v>
       </c>
       <c r="H12">
-        <v>7.279940573592675</v>
+        <v>7.086091697220018</v>
       </c>
       <c r="I12">
-        <v>1.492248062015504</v>
+        <v>1.44892221180881</v>
       </c>
       <c r="J12">
-        <v>117.8875968992248</v>
+        <v>114.464854732896</v>
       </c>
       <c r="K12">
-        <v>858.2146997900047</v>
+        <v>811.1084567462696</v>
       </c>
       <c r="L12">
-        <v>575.1153053138214</v>
+        <v>559.8012440803815</v>
       </c>
       <c r="M12">
-        <v>1.688184358827427</v>
+        <v>1.595522204789497</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1033,28 +1033,28 @@
         <v>76</v>
       </c>
       <c r="F13">
-        <v>10.82638143627216</v>
+        <v>10.29119117449056</v>
       </c>
       <c r="G13">
-        <v>3849</v>
+        <v>3095</v>
       </c>
       <c r="H13">
-        <v>7.256966512232314</v>
+        <v>7.095768002055853</v>
       </c>
       <c r="I13">
-        <v>1.491860465116279</v>
+        <v>1.450328022492971</v>
       </c>
       <c r="J13">
-        <v>113.3813953488372</v>
+        <v>110.2249297094658</v>
       </c>
       <c r="K13">
-        <v>822.8049891566842</v>
+        <v>782.1305292612828</v>
       </c>
       <c r="L13">
-        <v>551.5294549296558</v>
+        <v>539.2783681562448</v>
       </c>
       <c r="M13">
-        <v>1.715981457649137</v>
+        <v>1.631153801156754</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1074,28 +1074,28 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>11.8639891685355</v>
+        <v>11.07777372186156</v>
       </c>
       <c r="G14">
-        <v>4151</v>
+        <v>3330</v>
       </c>
       <c r="H14">
-        <v>7.373907987189011</v>
+        <v>7.099089826562332</v>
       </c>
       <c r="I14">
-        <v>1.608914728682171</v>
+        <v>1.560449859418932</v>
       </c>
       <c r="J14">
-        <v>1.608914728682171</v>
+        <v>1.560449859418932</v>
       </c>
       <c r="K14">
-        <v>11.8639891685355</v>
+        <v>11.07777372186156</v>
       </c>
       <c r="L14">
-        <v>7.373907987189011</v>
+        <v>7.099089826562332</v>
       </c>
       <c r="M14">
-        <v>2.967183691050728</v>
+        <v>2.770551207837575</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1115,28 +1115,28 @@
         <v>79</v>
       </c>
       <c r="F15">
-        <v>10.292975804889</v>
+        <v>10.03223148110968</v>
       </c>
       <c r="G15">
-        <v>4254</v>
+        <v>3471</v>
       </c>
       <c r="H15">
-        <v>6.24256642609629</v>
+        <v>6.167900311347755</v>
       </c>
       <c r="I15">
-        <v>1.648837209302326</v>
+        <v>1.626522961574508</v>
       </c>
       <c r="J15">
-        <v>130.2581395348837</v>
+        <v>128.4953139643861</v>
       </c>
       <c r="K15">
-        <v>813.1450885862308</v>
+        <v>792.5462870076648</v>
       </c>
       <c r="L15">
-        <v>493.1627476616069</v>
+        <v>487.2641245964726</v>
       </c>
       <c r="M15">
-        <v>1.59952844007975</v>
+        <v>1.559008772164445</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1156,28 +1156,28 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>10.55895371019988</v>
+        <v>10.20465831876525</v>
       </c>
       <c r="G16">
-        <v>4345</v>
+        <v>3540</v>
       </c>
       <c r="H16">
-        <v>6.269758474641126</v>
+        <v>6.151621709673738</v>
       </c>
       <c r="I16">
-        <v>1.684108527131783</v>
+        <v>1.658856607310216</v>
       </c>
       <c r="J16">
-        <v>1.684108527131783</v>
+        <v>1.658856607310216</v>
       </c>
       <c r="K16">
-        <v>10.55895371019988</v>
+        <v>10.20465831876525</v>
       </c>
       <c r="L16">
-        <v>6.269758474641126</v>
+        <v>6.151621709673738</v>
       </c>
       <c r="M16">
-        <v>2.036822170697557</v>
+        <v>1.968478589689816</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1197,28 +1197,28 @@
         <v>76</v>
       </c>
       <c r="F17">
-        <v>10.24715933473978</v>
+        <v>9.923597403723614</v>
       </c>
       <c r="G17">
-        <v>4237</v>
+        <v>3472</v>
       </c>
       <c r="H17">
-        <v>6.23971467633435</v>
+        <v>6.099353934201092</v>
       </c>
       <c r="I17">
-        <v>1.642248062015504</v>
+        <v>1.626991565135895</v>
       </c>
       <c r="J17">
-        <v>124.8108527131783</v>
+        <v>123.651358950328</v>
       </c>
       <c r="K17">
-        <v>778.7841094402235</v>
+        <v>754.1934026829946</v>
       </c>
       <c r="L17">
-        <v>474.2183154014106</v>
+        <v>463.550898999283</v>
       </c>
       <c r="M17">
-        <v>1.624174754556255</v>
+        <v>1.572890188490193</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1238,28 +1238,28 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>10.31786866554414</v>
+        <v>9.938955107279437</v>
       </c>
       <c r="G18">
-        <v>4250</v>
+        <v>3470</v>
       </c>
       <c r="H18">
-        <v>6.263553213436205</v>
+        <v>6.112314178367239</v>
       </c>
       <c r="I18">
-        <v>1.647286821705426</v>
+        <v>1.626054358013121</v>
       </c>
       <c r="J18">
-        <v>1.647286821705426</v>
+        <v>1.626054358013121</v>
       </c>
       <c r="K18">
-        <v>10.31786866554414</v>
+        <v>9.938955107279437</v>
       </c>
       <c r="L18">
-        <v>6.263553213436205</v>
+        <v>6.112314178367239</v>
       </c>
       <c r="M18">
-        <v>2.580498953252588</v>
+        <v>2.485732672330587</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1279,28 +1279,28 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>11.27940254507976</v>
+        <v>11.05661031699668</v>
       </c>
       <c r="G19">
-        <v>4597</v>
+        <v>3774</v>
       </c>
       <c r="H19">
-        <v>6.330402124495492</v>
+        <v>6.251935987406178</v>
       </c>
       <c r="I19">
-        <v>1.781782945736434</v>
+        <v>1.768509840674789</v>
       </c>
       <c r="J19">
-        <v>1.781782945736434</v>
+        <v>1.768509840674789</v>
       </c>
       <c r="K19">
-        <v>11.27940254507976</v>
+        <v>11.05661031699668</v>
       </c>
       <c r="L19">
-        <v>6.330402124495492</v>
+        <v>6.251935987406178</v>
       </c>
       <c r="M19">
-        <v>2.9698666901195</v>
+        <v>2.911205496465226</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1320,28 +1320,28 @@
         <v>79</v>
       </c>
       <c r="F20">
-        <v>12.13571297936753</v>
+        <v>11.58819121916773</v>
       </c>
       <c r="G20">
-        <v>4314</v>
+        <v>3472</v>
       </c>
       <c r="H20">
-        <v>7.257797748439555</v>
+        <v>7.122465455559888</v>
       </c>
       <c r="I20">
-        <v>1.672093023255814</v>
+        <v>1.626991565135895</v>
       </c>
       <c r="J20">
-        <v>132.0953488372093</v>
+        <v>128.5323336457357</v>
       </c>
       <c r="K20">
-        <v>958.7213253700352</v>
+        <v>915.4671063142505</v>
       </c>
       <c r="L20">
-        <v>573.3660221267248</v>
+        <v>562.6747709892311</v>
       </c>
       <c r="M20">
-        <v>1.885889796993715</v>
+        <v>1.800804915458665</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>12.57278440502094</v>
+        <v>11.85223903773185</v>
       </c>
       <c r="G21">
-        <v>4420</v>
+        <v>3540</v>
       </c>
       <c r="H21">
-        <v>7.33886510519322</v>
+        <v>7.144824323875643</v>
       </c>
       <c r="I21">
-        <v>1.713178294573643</v>
+        <v>1.658856607310216</v>
       </c>
       <c r="J21">
-        <v>1.713178294573643</v>
+        <v>1.658856607310216</v>
       </c>
       <c r="K21">
-        <v>12.57278440502094</v>
+        <v>11.85223903773185</v>
       </c>
       <c r="L21">
-        <v>7.33886510519322</v>
+        <v>7.144824323875643</v>
       </c>
       <c r="M21">
-        <v>2.42529011172854</v>
+        <v>2.286296910378474</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1402,28 +1402,28 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>12.13631845330861</v>
+        <v>11.64372325453217</v>
       </c>
       <c r="G22">
-        <v>4316</v>
+        <v>3467</v>
       </c>
       <c r="H22">
-        <v>7.254796480430075</v>
+        <v>7.166918207433414</v>
       </c>
       <c r="I22">
-        <v>1.672868217054263</v>
+        <v>1.62464854732896</v>
       </c>
       <c r="J22">
-        <v>1.672868217054263</v>
+        <v>1.62464854732896</v>
       </c>
       <c r="K22">
-        <v>12.13631845330861</v>
+        <v>11.64372325453217</v>
       </c>
       <c r="L22">
-        <v>7.254796480430075</v>
+        <v>7.166918207433414</v>
       </c>
       <c r="M22">
-        <v>3.435791754131666</v>
+        <v>3.296338053358058</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1443,28 +1443,28 @@
         <v>76</v>
       </c>
       <c r="F23">
-        <v>12.14046780765477</v>
+        <v>11.53149073933663</v>
       </c>
       <c r="G23">
-        <v>4313</v>
+        <v>3464</v>
       </c>
       <c r="H23">
-        <v>7.26232481886142</v>
+        <v>7.103984191034749</v>
       </c>
       <c r="I23">
-        <v>1.671705426356589</v>
+        <v>1.623242736644799</v>
       </c>
       <c r="J23">
-        <v>127.0496124031008</v>
+        <v>123.3664479850047</v>
       </c>
       <c r="K23">
-        <v>922.6755533817625</v>
+        <v>876.3932961895841</v>
       </c>
       <c r="L23">
-        <v>551.9366862334679</v>
+        <v>539.9027985186409</v>
       </c>
       <c r="M23">
-        <v>1.924264147513281</v>
+        <v>1.827741282184856</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1484,28 +1484,28 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>13.13733136971907</v>
+        <v>12.68095976757514</v>
       </c>
       <c r="G24">
-        <v>4641</v>
+        <v>3732</v>
       </c>
       <c r="H24">
-        <v>7.303235279869685</v>
+        <v>7.251116866025011</v>
       </c>
       <c r="I24">
-        <v>1.798837209302325</v>
+        <v>1.748828491096532</v>
       </c>
       <c r="J24">
-        <v>1.798837209302325</v>
+        <v>1.748828491096532</v>
       </c>
       <c r="K24">
-        <v>13.13733136971907</v>
+        <v>12.68095976757514</v>
       </c>
       <c r="L24">
-        <v>7.303235279869685</v>
+        <v>7.251116866025011</v>
       </c>
       <c r="M24">
-        <v>4.016082199723121</v>
+        <v>3.87656940094772</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1522,25 +1522,25 @@
         <v>1183</v>
       </c>
       <c r="J25">
-        <v>1.451406554089917</v>
+        <v>1.41203760553483</v>
       </c>
       <c r="K25">
-        <v>9.315717880424746</v>
+        <v>8.952846746409122</v>
       </c>
       <c r="L25">
-        <v>6.418406926835209</v>
+        <v>6.34037415952396</v>
       </c>
       <c r="M25">
-        <v>48.6627650782175</v>
+        <v>46.81788661726878</v>
       </c>
       <c r="N25">
-        <v>2580</v>
+        <v>2134</v>
       </c>
       <c r="O25">
         <v>0.02</v>
       </c>
       <c r="P25">
-        <v>0.02079292816962097</v>
+        <v>0.0230776890906785</v>
       </c>
       <c r="Q25" t="s">
         <v>43</v>

--- a/MonteCarloResultsBUS6Sub2MDERS.xlsx
+++ b/MonteCarloResultsBUS6Sub2MDERS.xlsx
@@ -145,10 +145,10 @@
     <t>farm</t>
   </si>
   <si>
-    <t>(44.700207300046266, 48.93556593449126)</t>
-  </si>
-  <si>
-    <t>(44.03465094320491, 49.601122291332615)</t>
+    <t>(46.77570923070653, 50.38425446321228)</t>
+  </si>
+  <si>
+    <t>(46.20865212274134, 50.95131157117747)</t>
   </si>
 </sst>
 </file>
@@ -582,28 +582,28 @@
         <v>147</v>
       </c>
       <c r="F2">
-        <v>7.155837786072367</v>
+        <v>7.138696694039849</v>
       </c>
       <c r="G2">
-        <v>2781</v>
+        <v>4130</v>
       </c>
       <c r="H2">
-        <v>5.491031224551755</v>
+        <v>5.365257757457552</v>
       </c>
       <c r="I2">
-        <v>1.303186504217432</v>
+        <v>1.330541237113402</v>
       </c>
       <c r="J2">
-        <v>191.5684161199625</v>
+        <v>195.5895618556701</v>
       </c>
       <c r="K2">
-        <v>1051.908154552638</v>
+        <v>1049.388414023858</v>
       </c>
       <c r="L2">
-        <v>807.181590009108</v>
+        <v>788.6928903462602</v>
       </c>
       <c r="M2">
-        <v>1.187153488709406</v>
+        <v>1.184309781541211</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -623,28 +623,28 @@
         <v>126</v>
       </c>
       <c r="F3">
-        <v>7.189756796779523</v>
+        <v>7.105553190240075</v>
       </c>
       <c r="G3">
-        <v>2776</v>
+        <v>4134</v>
       </c>
       <c r="H3">
-        <v>5.526996039022875</v>
+        <v>5.335180721457473</v>
       </c>
       <c r="I3">
-        <v>1.300843486410497</v>
+        <v>1.331829896907216</v>
       </c>
       <c r="J3">
-        <v>163.9062792877226</v>
+        <v>167.8105670103093</v>
       </c>
       <c r="K3">
-        <v>905.9093563942199</v>
+        <v>895.2997019702494</v>
       </c>
       <c r="L3">
-        <v>696.4015009168822</v>
+        <v>672.2327709036416</v>
       </c>
       <c r="M3">
-        <v>1.299908028857738</v>
+        <v>1.284684016795405</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -664,28 +664,28 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>7.144365214794698</v>
+        <v>7.070079771216362</v>
       </c>
       <c r="G4">
-        <v>2778</v>
+        <v>4127</v>
       </c>
       <c r="H4">
-        <v>5.488148080767418</v>
+        <v>5.317549699504625</v>
       </c>
       <c r="I4">
-        <v>1.301780693533271</v>
+        <v>1.329574742268041</v>
       </c>
       <c r="J4">
-        <v>1.301780693533271</v>
+        <v>1.329574742268041</v>
       </c>
       <c r="K4">
-        <v>7.144365214794698</v>
+        <v>7.070079771216362</v>
       </c>
       <c r="L4">
-        <v>5.488148080767418</v>
+        <v>5.317549699504625</v>
       </c>
       <c r="M4">
-        <v>1.786805740220154</v>
+        <v>1.768226950781212</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -705,28 +705,28 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>7.226133001156112</v>
+        <v>7.104416165966065</v>
       </c>
       <c r="G5">
-        <v>2784</v>
+        <v>4137</v>
       </c>
       <c r="H5">
-        <v>5.538997063386187</v>
+        <v>5.330458733178308</v>
       </c>
       <c r="I5">
-        <v>1.304592314901593</v>
+        <v>1.332796391752577</v>
       </c>
       <c r="J5">
-        <v>1.304592314901593</v>
+        <v>1.332796391752577</v>
       </c>
       <c r="K5">
-        <v>7.226133001156112</v>
+        <v>7.104416165966065</v>
       </c>
       <c r="L5">
-        <v>5.538997063386187</v>
+        <v>5.330458733178308</v>
       </c>
       <c r="M5">
-        <v>1.902640819204404</v>
+        <v>1.870592776498865</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -746,28 +746,28 @@
         <v>132</v>
       </c>
       <c r="F6">
-        <v>7.831953062165842</v>
+        <v>8.222345595423011</v>
       </c>
       <c r="G6">
-        <v>2773</v>
+        <v>4140</v>
       </c>
       <c r="H6">
-        <v>6.027186381053698</v>
+        <v>6.16477312275194</v>
       </c>
       <c r="I6">
-        <v>1.299437675726336</v>
+        <v>1.333762886597938</v>
       </c>
       <c r="J6">
-        <v>171.5257731958763</v>
+        <v>176.0567010309278</v>
       </c>
       <c r="K6">
-        <v>1033.817804205891</v>
+        <v>1085.349618595837</v>
       </c>
       <c r="L6">
-        <v>795.5886022990882</v>
+        <v>813.750052203256</v>
       </c>
       <c r="M6">
-        <v>1.621214283868329</v>
+        <v>1.702025538252563</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -787,28 +787,28 @@
         <v>147</v>
       </c>
       <c r="F7">
-        <v>8.025883211335147</v>
+        <v>8.289700810554132</v>
       </c>
       <c r="G7">
-        <v>2837</v>
+        <v>4209</v>
       </c>
       <c r="H7">
-        <v>6.037093680997252</v>
+        <v>6.11338353907342</v>
       </c>
       <c r="I7">
-        <v>1.329428303655108</v>
+        <v>1.355992268041237</v>
       </c>
       <c r="J7">
-        <v>195.4259606373008</v>
+        <v>199.3308634020619</v>
       </c>
       <c r="K7">
-        <v>1179.804832066267</v>
+        <v>1218.586019151457</v>
       </c>
       <c r="L7">
-        <v>887.4527711065961</v>
+        <v>898.6673802437928</v>
       </c>
       <c r="M7">
-        <v>1.331494024760501</v>
+        <v>1.37526136447093</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -828,28 +828,28 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>8.132159920605083</v>
+        <v>8.361346660580599</v>
       </c>
       <c r="G8">
-        <v>2856</v>
+        <v>4229</v>
       </c>
       <c r="H8">
-        <v>6.076340781012342</v>
+        <v>6.137058414386895</v>
       </c>
       <c r="I8">
-        <v>1.338331771321462</v>
+        <v>1.362435567010309</v>
       </c>
       <c r="J8">
-        <v>1.338331771321462</v>
+        <v>1.362435567010309</v>
       </c>
       <c r="K8">
-        <v>8.132159920605083</v>
+        <v>8.361346660580599</v>
       </c>
       <c r="L8">
-        <v>6.076340781012342</v>
+        <v>6.137058414386895</v>
       </c>
       <c r="M8">
-        <v>2.486001287728974</v>
+        <v>2.55606367413949</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -869,28 +869,28 @@
         <v>79</v>
       </c>
       <c r="F9">
-        <v>7.92476738644709</v>
+        <v>8.121632816319563</v>
       </c>
       <c r="G9">
-        <v>2789</v>
+        <v>4122</v>
       </c>
       <c r="H9">
-        <v>6.063626246926529</v>
+        <v>6.115853532716139</v>
       </c>
       <c r="I9">
-        <v>1.306935332708529</v>
+        <v>1.327963917525773</v>
       </c>
       <c r="J9">
-        <v>103.2478912839738</v>
+        <v>104.9091494845361</v>
       </c>
       <c r="K9">
-        <v>626.0566235293202</v>
+        <v>641.6089924892455</v>
       </c>
       <c r="L9">
-        <v>479.0264735071958</v>
+        <v>483.152429084575</v>
       </c>
       <c r="M9">
-        <v>1.231508851853878</v>
+        <v>1.26210173965606</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -910,28 +910,28 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>9.970799587348667</v>
+        <v>10.21165076286167</v>
       </c>
       <c r="G10">
-        <v>2831</v>
+        <v>4206</v>
       </c>
       <c r="H10">
-        <v>7.515961257294968</v>
+        <v>7.536130282435239</v>
       </c>
       <c r="I10">
-        <v>1.326616682286785</v>
+        <v>1.355025773195876</v>
       </c>
       <c r="J10">
-        <v>1.326616682286785</v>
+        <v>1.355025773195876</v>
       </c>
       <c r="K10">
-        <v>9.970799587348667</v>
+        <v>10.21165076286167</v>
       </c>
       <c r="L10">
-        <v>7.515961257294968</v>
+        <v>7.536130282435239</v>
       </c>
       <c r="M10">
-        <v>2.822733363178408</v>
+        <v>2.890918330966138</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -951,28 +951,28 @@
         <v>76</v>
       </c>
       <c r="F11">
-        <v>9.880966773723198</v>
+        <v>10.19854049550937</v>
       </c>
       <c r="G11">
-        <v>2783</v>
+        <v>4140</v>
       </c>
       <c r="H11">
-        <v>7.576709700009093</v>
+        <v>7.646441956053399</v>
       </c>
       <c r="I11">
-        <v>1.304123711340206</v>
+        <v>1.333762886597938</v>
       </c>
       <c r="J11">
-        <v>99.11340206185567</v>
+        <v>101.3659793814433</v>
       </c>
       <c r="K11">
-        <v>750.9534748029631</v>
+        <v>775.0890776587119</v>
       </c>
       <c r="L11">
-        <v>575.829937200691</v>
+        <v>581.1295886600584</v>
       </c>
       <c r="M11">
-        <v>1.566133233635127</v>
+        <v>1.616468668538235</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -992,28 +992,28 @@
         <v>79</v>
       </c>
       <c r="F12">
-        <v>10.26719565501607</v>
+        <v>10.76967946348953</v>
       </c>
       <c r="G12">
-        <v>3092</v>
+        <v>4581</v>
       </c>
       <c r="H12">
-        <v>7.086091697220018</v>
+        <v>7.297333563560688</v>
       </c>
       <c r="I12">
-        <v>1.44892221180881</v>
+        <v>1.475837628865979</v>
       </c>
       <c r="J12">
-        <v>114.464854732896</v>
+        <v>116.5911726804124</v>
       </c>
       <c r="K12">
-        <v>811.1084567462696</v>
+        <v>850.8046776156731</v>
       </c>
       <c r="L12">
-        <v>559.8012440803815</v>
+        <v>576.4893515212943</v>
       </c>
       <c r="M12">
-        <v>1.595522204789497</v>
+        <v>1.673608188626273</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1033,28 +1033,28 @@
         <v>76</v>
       </c>
       <c r="F13">
-        <v>10.29119117449056</v>
+        <v>10.81784817357252</v>
       </c>
       <c r="G13">
-        <v>3095</v>
+        <v>4597</v>
       </c>
       <c r="H13">
-        <v>7.095768002055853</v>
+        <v>7.304459589029605</v>
       </c>
       <c r="I13">
-        <v>1.450328022492971</v>
+        <v>1.480992268041237</v>
       </c>
       <c r="J13">
-        <v>110.2249297094658</v>
+        <v>112.555412371134</v>
       </c>
       <c r="K13">
-        <v>782.1305292612828</v>
+        <v>822.1564611915113</v>
       </c>
       <c r="L13">
-        <v>539.2783681562448</v>
+        <v>555.13892876625</v>
       </c>
       <c r="M13">
-        <v>1.631153801156754</v>
+        <v>1.714628935511244</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1074,28 +1074,28 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>11.07777372186156</v>
+        <v>11.5633784597839</v>
       </c>
       <c r="G14">
-        <v>3330</v>
+        <v>4919</v>
       </c>
       <c r="H14">
-        <v>7.099089826562332</v>
+        <v>7.29675274225843</v>
       </c>
       <c r="I14">
-        <v>1.560449859418932</v>
+        <v>1.584729381443299</v>
       </c>
       <c r="J14">
-        <v>1.560449859418932</v>
+        <v>1.584729381443299</v>
       </c>
       <c r="K14">
-        <v>11.07777372186156</v>
+        <v>11.5633784597839</v>
       </c>
       <c r="L14">
-        <v>7.099089826562332</v>
+        <v>7.29675274225843</v>
       </c>
       <c r="M14">
-        <v>2.770551207837575</v>
+        <v>2.892000952791952</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1115,28 +1115,28 @@
         <v>79</v>
       </c>
       <c r="F15">
-        <v>10.03223148110968</v>
+        <v>10.32361467237481</v>
       </c>
       <c r="G15">
-        <v>3471</v>
+        <v>5100</v>
       </c>
       <c r="H15">
-        <v>6.167900311347755</v>
+        <v>6.283235282951257</v>
       </c>
       <c r="I15">
-        <v>1.626522961574508</v>
+        <v>1.643041237113402</v>
       </c>
       <c r="J15">
-        <v>128.4953139643861</v>
+        <v>129.8002577319588</v>
       </c>
       <c r="K15">
-        <v>792.5462870076648</v>
+        <v>815.56555911761</v>
       </c>
       <c r="L15">
-        <v>487.2641245964726</v>
+        <v>496.3755873531493</v>
       </c>
       <c r="M15">
-        <v>1.559008772164445</v>
+        <v>1.604289720087045</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1156,28 +1156,28 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>10.20465831876525</v>
+        <v>10.66502575090687</v>
       </c>
       <c r="G16">
-        <v>3540</v>
+        <v>5217</v>
       </c>
       <c r="H16">
-        <v>6.151621709673738</v>
+        <v>6.345455229215049</v>
       </c>
       <c r="I16">
-        <v>1.658856607310216</v>
+        <v>1.680734536082474</v>
       </c>
       <c r="J16">
-        <v>1.658856607310216</v>
+        <v>1.680734536082474</v>
       </c>
       <c r="K16">
-        <v>10.20465831876525</v>
+        <v>10.66502575090687</v>
       </c>
       <c r="L16">
-        <v>6.151621709673738</v>
+        <v>6.345455229215049</v>
       </c>
       <c r="M16">
-        <v>1.968478589689816</v>
+        <v>2.057283467349934</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1197,28 +1197,28 @@
         <v>76</v>
       </c>
       <c r="F17">
-        <v>9.923597403723614</v>
+        <v>10.34379023278298</v>
       </c>
       <c r="G17">
-        <v>3472</v>
+        <v>5110</v>
       </c>
       <c r="H17">
-        <v>6.099353934201092</v>
+        <v>6.283194693259954</v>
       </c>
       <c r="I17">
-        <v>1.626991565135895</v>
+        <v>1.646262886597938</v>
       </c>
       <c r="J17">
-        <v>123.651358950328</v>
+        <v>125.1159793814433</v>
       </c>
       <c r="K17">
-        <v>754.1934026829946</v>
+        <v>786.1280576915065</v>
       </c>
       <c r="L17">
-        <v>463.550898999283</v>
+        <v>477.5227966877565</v>
       </c>
       <c r="M17">
-        <v>1.572890188490193</v>
+        <v>1.639490751896102</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1238,28 +1238,28 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>9.938955107279437</v>
+        <v>10.37443871514018</v>
       </c>
       <c r="G18">
-        <v>3470</v>
+        <v>5099</v>
       </c>
       <c r="H18">
-        <v>6.112314178367239</v>
+        <v>6.315406505549148</v>
       </c>
       <c r="I18">
-        <v>1.626054358013121</v>
+        <v>1.642719072164949</v>
       </c>
       <c r="J18">
-        <v>1.626054358013121</v>
+        <v>1.642719072164949</v>
       </c>
       <c r="K18">
-        <v>9.938955107279437</v>
+        <v>10.37443871514018</v>
       </c>
       <c r="L18">
-        <v>6.112314178367239</v>
+        <v>6.315406505549148</v>
       </c>
       <c r="M18">
-        <v>2.485732672330587</v>
+        <v>2.594647122656558</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1279,28 +1279,28 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>11.05661031699668</v>
+        <v>11.60341582924931</v>
       </c>
       <c r="G19">
-        <v>3774</v>
+        <v>5576</v>
       </c>
       <c r="H19">
-        <v>6.251935987406178</v>
+        <v>6.459290303800191</v>
       </c>
       <c r="I19">
-        <v>1.768509840674789</v>
+        <v>1.79639175257732</v>
       </c>
       <c r="J19">
-        <v>1.768509840674789</v>
+        <v>1.79639175257732</v>
       </c>
       <c r="K19">
-        <v>11.05661031699668</v>
+        <v>11.60341582924931</v>
       </c>
       <c r="L19">
-        <v>6.251935987406178</v>
+        <v>6.459290303800191</v>
       </c>
       <c r="M19">
-        <v>2.911205496465226</v>
+        <v>3.055179387841343</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1320,28 +1320,28 @@
         <v>79</v>
       </c>
       <c r="F20">
-        <v>11.58819121916773</v>
+        <v>12.34294279821057</v>
       </c>
       <c r="G20">
-        <v>3472</v>
+        <v>5191</v>
       </c>
       <c r="H20">
-        <v>7.122465455559888</v>
+        <v>7.380561442043078</v>
       </c>
       <c r="I20">
-        <v>1.626991565135895</v>
+        <v>1.67235824742268</v>
       </c>
       <c r="J20">
-        <v>128.5323336457357</v>
+        <v>132.1163015463918</v>
       </c>
       <c r="K20">
-        <v>915.4671063142505</v>
+        <v>975.0924810586353</v>
       </c>
       <c r="L20">
-        <v>562.6747709892311</v>
+        <v>583.0643539214032</v>
       </c>
       <c r="M20">
-        <v>1.800804915458665</v>
+        <v>1.918093310841923</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>11.85223903773185</v>
+        <v>12.55816473156228</v>
       </c>
       <c r="G21">
-        <v>3540</v>
+        <v>5303</v>
       </c>
       <c r="H21">
-        <v>7.144824323875643</v>
+        <v>7.350658745383619</v>
       </c>
       <c r="I21">
-        <v>1.658856607310216</v>
+        <v>1.708440721649485</v>
       </c>
       <c r="J21">
-        <v>1.658856607310216</v>
+        <v>1.708440721649485</v>
       </c>
       <c r="K21">
-        <v>11.85223903773185</v>
+        <v>12.55816473156228</v>
       </c>
       <c r="L21">
-        <v>7.144824323875643</v>
+        <v>7.350658745383619</v>
       </c>
       <c r="M21">
-        <v>2.286296910378474</v>
+        <v>2.422469976718364</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1402,28 +1402,28 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>11.64372325453217</v>
+        <v>12.27433384520715</v>
       </c>
       <c r="G22">
-        <v>3467</v>
+        <v>5191</v>
       </c>
       <c r="H22">
-        <v>7.166918207433414</v>
+        <v>7.339536169432284</v>
       </c>
       <c r="I22">
-        <v>1.62464854732896</v>
+        <v>1.67235824742268</v>
       </c>
       <c r="J22">
-        <v>1.62464854732896</v>
+        <v>1.67235824742268</v>
       </c>
       <c r="K22">
-        <v>11.64372325453217</v>
+        <v>12.27433384520715</v>
       </c>
       <c r="L22">
-        <v>7.166918207433414</v>
+        <v>7.339536169432284</v>
       </c>
       <c r="M22">
-        <v>3.296338053358058</v>
+        <v>3.474863911578144</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1443,28 +1443,28 @@
         <v>76</v>
       </c>
       <c r="F23">
-        <v>11.53149073933663</v>
+        <v>12.26867653248788</v>
       </c>
       <c r="G23">
-        <v>3464</v>
+        <v>5194</v>
       </c>
       <c r="H23">
-        <v>7.103984191034749</v>
+        <v>7.331916048679702</v>
       </c>
       <c r="I23">
-        <v>1.623242736644799</v>
+        <v>1.673324742268041</v>
       </c>
       <c r="J23">
-        <v>123.3664479850047</v>
+        <v>127.1726804123711</v>
       </c>
       <c r="K23">
-        <v>876.3932961895841</v>
+        <v>932.4194164690787</v>
       </c>
       <c r="L23">
-        <v>539.9027985186409</v>
+        <v>557.2256196996573</v>
       </c>
       <c r="M23">
-        <v>1.827741282184856</v>
+        <v>1.944585230399329</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1484,28 +1484,28 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>12.68095976757514</v>
+        <v>13.34049083749143</v>
       </c>
       <c r="G24">
-        <v>3732</v>
+        <v>5564</v>
       </c>
       <c r="H24">
-        <v>7.251116866025011</v>
+        <v>7.442286764840653</v>
       </c>
       <c r="I24">
-        <v>1.748828491096532</v>
+        <v>1.792525773195876</v>
       </c>
       <c r="J24">
-        <v>1.748828491096532</v>
+        <v>1.792525773195876</v>
       </c>
       <c r="K24">
-        <v>12.68095976757514</v>
+        <v>13.34049083749143</v>
       </c>
       <c r="L24">
-        <v>7.251116866025011</v>
+        <v>7.442286764840653</v>
       </c>
       <c r="M24">
-        <v>3.87656940094772</v>
+        <v>4.07818804902113</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1522,25 +1522,25 @@
         <v>1183</v>
       </c>
       <c r="J25">
-        <v>1.41203760553483</v>
+        <v>1.441819406802555</v>
       </c>
       <c r="K25">
-        <v>8.952846746409122</v>
+        <v>9.266792238853204</v>
       </c>
       <c r="L25">
-        <v>6.34037415952396</v>
+        <v>6.427151829925544</v>
       </c>
       <c r="M25">
-        <v>46.81788661726878</v>
+        <v>48.57998184695946</v>
       </c>
       <c r="N25">
-        <v>2134</v>
+        <v>3104</v>
       </c>
       <c r="O25">
         <v>0.02</v>
       </c>
       <c r="P25">
-        <v>0.0230776890906785</v>
+        <v>0.01894910657007291</v>
       </c>
       <c r="Q25" t="s">
         <v>43</v>
